--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mmrn2-Clec14a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mmrn2-Clec14a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Clec14a</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>42.00142366666666</v>
+        <v>37.88856266666667</v>
       </c>
       <c r="H2">
-        <v>126.004271</v>
+        <v>113.665688</v>
       </c>
       <c r="I2">
-        <v>0.9484641293860542</v>
+        <v>0.9468476050819132</v>
       </c>
       <c r="J2">
-        <v>0.9560916295960395</v>
+        <v>0.9540268599258594</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.63996033333333</v>
+        <v>14.44160866666667</v>
       </c>
       <c r="N2">
-        <v>37.919881</v>
+        <v>43.324826</v>
       </c>
       <c r="O2">
-        <v>0.8611101399999848</v>
+        <v>0.9004851332477053</v>
       </c>
       <c r="P2">
-        <v>0.8745772488577931</v>
+        <v>0.9051105262948982</v>
       </c>
       <c r="Q2">
-        <v>530.8963290901945</v>
+        <v>547.1717949744765</v>
       </c>
       <c r="R2">
-        <v>4778.066961811751</v>
+        <v>4924.546154770288</v>
       </c>
       <c r="S2">
-        <v>0.8167320792405888</v>
+        <v>0.8526221918274572</v>
       </c>
       <c r="T2">
-        <v>0.8361759870680684</v>
+        <v>0.8634997532869637</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>42.00142366666666</v>
+        <v>37.88856266666667</v>
       </c>
       <c r="H3">
-        <v>126.004271</v>
+        <v>113.665688</v>
       </c>
       <c r="I3">
-        <v>0.9484641293860542</v>
+        <v>0.9468476050819132</v>
       </c>
       <c r="J3">
-        <v>0.9560916295960395</v>
+        <v>0.9540268599258594</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>4.050322</v>
       </c>
       <c r="O3">
-        <v>0.09197743380220573</v>
+        <v>0.08418394446329946</v>
       </c>
       <c r="P3">
-        <v>0.09341589104006402</v>
+        <v>0.08461636007687151</v>
       </c>
       <c r="Q3">
-        <v>56.70643010280689</v>
+        <v>51.15362630572623</v>
       </c>
       <c r="R3">
-        <v>510.357870925262</v>
+        <v>460.382636751536</v>
       </c>
       <c r="S3">
-        <v>0.08723729667437249</v>
+        <v>0.07970936620142388</v>
       </c>
       <c r="T3">
-        <v>0.08931415149466088</v>
+        <v>0.08072628030249358</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>42.00142366666666</v>
+        <v>37.88856266666667</v>
       </c>
       <c r="H4">
-        <v>126.004271</v>
+        <v>113.665688</v>
       </c>
       <c r="I4">
-        <v>0.9484641293860542</v>
+        <v>0.9468476050819132</v>
       </c>
       <c r="J4">
-        <v>0.9560916295960395</v>
+        <v>0.9540268599258594</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6780855</v>
+        <v>0.245871</v>
       </c>
       <c r="N4">
-        <v>1.356171</v>
+        <v>0.491742</v>
       </c>
       <c r="O4">
-        <v>0.04619526362730091</v>
+        <v>0.01533092228899522</v>
       </c>
       <c r="P4">
-        <v>0.03127848165348204</v>
+        <v>0.01027311362823029</v>
       </c>
       <c r="Q4">
-        <v>28.4805563677235</v>
+        <v>9.315698791416001</v>
       </c>
       <c r="R4">
-        <v>170.883338206341</v>
+        <v>55.894192748496</v>
       </c>
       <c r="S4">
-        <v>0.04381455049802722</v>
+        <v>0.01451604705303205</v>
       </c>
       <c r="T4">
-        <v>0.02990509449536747</v>
+        <v>0.009800826336402092</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>42.00142366666666</v>
+        <v>1.173162333333333</v>
       </c>
       <c r="H5">
-        <v>126.004271</v>
+        <v>3.519487</v>
       </c>
       <c r="I5">
-        <v>0.9484641293860542</v>
+        <v>0.02931771140176381</v>
       </c>
       <c r="J5">
-        <v>0.9560916295960395</v>
+        <v>0.02954000622562442</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.010527</v>
+        <v>14.44160866666667</v>
       </c>
       <c r="N5">
-        <v>0.031581</v>
+        <v>43.324826</v>
       </c>
       <c r="O5">
-        <v>0.0007171625705085814</v>
+        <v>0.9004851332477053</v>
       </c>
       <c r="P5">
-        <v>0.0007283784486606896</v>
+        <v>0.9051105262948982</v>
       </c>
       <c r="Q5">
-        <v>0.442148986939</v>
+        <v>16.94235132047356</v>
       </c>
       <c r="R5">
-        <v>3.979340882450999</v>
+        <v>152.481161884262</v>
       </c>
       <c r="S5">
-        <v>0.0006802029730656864</v>
+        <v>0.02640016325813505</v>
       </c>
       <c r="T5">
-        <v>0.0006963965379426339</v>
+        <v>0.02673697058162949</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +791,10 @@
         <v>3.519487</v>
       </c>
       <c r="I6">
-        <v>0.0264920160788878</v>
+        <v>0.02931771140176381</v>
       </c>
       <c r="J6">
-        <v>0.02670506352258549</v>
+        <v>0.02954000622562442</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.63996033333333</v>
+        <v>1.350107333333334</v>
       </c>
       <c r="N6">
-        <v>37.919881</v>
+        <v>4.050322</v>
       </c>
       <c r="O6">
-        <v>0.8611101399999848</v>
+        <v>0.08418394446329946</v>
       </c>
       <c r="P6">
-        <v>0.8745772488577931</v>
+        <v>0.08461636007687151</v>
       </c>
       <c r="Q6">
-        <v>14.82872535789411</v>
+        <v>1.583895069423778</v>
       </c>
       <c r="R6">
-        <v>133.458528221047</v>
+        <v>14.255055624814</v>
       </c>
       <c r="S6">
-        <v>0.02281254367457292</v>
+        <v>0.002468080588437126</v>
       </c>
       <c r="T6">
-        <v>0.02335564098615542</v>
+        <v>0.002499567803460462</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +853,45 @@
         <v>3.519487</v>
       </c>
       <c r="I7">
-        <v>0.0264920160788878</v>
+        <v>0.02931771140176381</v>
       </c>
       <c r="J7">
-        <v>0.02670506352258549</v>
+        <v>0.02954000622562442</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.350107333333334</v>
+        <v>0.245871</v>
       </c>
       <c r="N7">
-        <v>4.050322</v>
+        <v>0.491742</v>
       </c>
       <c r="O7">
-        <v>0.09197743380220573</v>
+        <v>0.01533092228899522</v>
       </c>
       <c r="P7">
-        <v>0.09341589104006402</v>
+        <v>0.01027311362823029</v>
       </c>
       <c r="Q7">
-        <v>1.583895069423778</v>
+        <v>0.288446596059</v>
       </c>
       <c r="R7">
-        <v>14.255055624814</v>
+        <v>1.730679576354</v>
       </c>
       <c r="S7">
-        <v>0.002436667655182873</v>
+        <v>0.00044946755519163</v>
       </c>
       <c r="T7">
-        <v>0.002494677304243834</v>
+        <v>0.0003034678405344697</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.173162333333333</v>
+        <v>0.05038133333333333</v>
       </c>
       <c r="H8">
-        <v>3.519487</v>
+        <v>0.151144</v>
       </c>
       <c r="I8">
-        <v>0.0264920160788878</v>
+        <v>0.00125904604054744</v>
       </c>
       <c r="J8">
-        <v>0.02670506352258549</v>
+        <v>0.001268592468438093</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6780855</v>
+        <v>14.44160866666667</v>
       </c>
       <c r="N8">
-        <v>1.356171</v>
+        <v>43.324826</v>
       </c>
       <c r="O8">
-        <v>0.04619526362730091</v>
+        <v>0.9004851332477053</v>
       </c>
       <c r="P8">
-        <v>0.03127848165348204</v>
+        <v>0.9051105262948982</v>
       </c>
       <c r="Q8">
-        <v>0.7955043673794999</v>
+        <v>0.7275875001048889</v>
       </c>
       <c r="R8">
-        <v>4.773026204277</v>
+        <v>6.548287500944</v>
       </c>
       <c r="S8">
-        <v>0.001223805666782917</v>
+        <v>0.001133752241587358</v>
       </c>
       <c r="T8">
-        <v>0.0008352938394462626</v>
+        <v>0.001148216396761746</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.173162333333333</v>
+        <v>0.05038133333333333</v>
       </c>
       <c r="H9">
-        <v>3.519487</v>
+        <v>0.151144</v>
       </c>
       <c r="I9">
-        <v>0.0264920160788878</v>
+        <v>0.00125904604054744</v>
       </c>
       <c r="J9">
-        <v>0.02670506352258549</v>
+        <v>0.001268592468438093</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.010527</v>
+        <v>1.350107333333334</v>
       </c>
       <c r="N9">
-        <v>0.031581</v>
+        <v>4.050322</v>
       </c>
       <c r="O9">
-        <v>0.0007171625705085814</v>
+        <v>0.08418394446329946</v>
       </c>
       <c r="P9">
-        <v>0.0007283784486606896</v>
+        <v>0.08461636007687151</v>
       </c>
       <c r="Q9">
-        <v>0.012349879883</v>
+        <v>0.06802020759644445</v>
       </c>
       <c r="R9">
-        <v>0.111148918947</v>
+        <v>0.612181868368</v>
       </c>
       <c r="S9">
-        <v>1.899908234908985E-05</v>
+        <v>0.0001059914619541828</v>
       </c>
       <c r="T9">
-        <v>1.945139273996599E-05</v>
+        <v>0.0001073436771001649</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1036,51 +1033,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.049176</v>
+        <v>0.05038133333333333</v>
       </c>
       <c r="H10">
-        <v>0.147528</v>
+        <v>0.151144</v>
       </c>
       <c r="I10">
-        <v>0.001110478358944403</v>
+        <v>0.00125904604054744</v>
       </c>
       <c r="J10">
-        <v>0.001119408769334847</v>
+        <v>0.001268592468438093</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.63996033333333</v>
+        <v>0.245871</v>
       </c>
       <c r="N10">
-        <v>37.919881</v>
+        <v>0.491742</v>
       </c>
       <c r="O10">
-        <v>0.8611101399999848</v>
+        <v>0.01533092228899522</v>
       </c>
       <c r="P10">
-        <v>0.8745772488577931</v>
+        <v>0.01027311362823029</v>
       </c>
       <c r="Q10">
-        <v>0.621582689352</v>
+        <v>0.012387308808</v>
       </c>
       <c r="R10">
-        <v>5.594244204168001</v>
+        <v>0.074323852848</v>
       </c>
       <c r="S10">
-        <v>0.0009562441751375681</v>
+        <v>1.930233700589993E-05</v>
       </c>
       <c r="T10">
-        <v>0.0009790094418321582</v>
+        <v>1.303239457618167E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,25 +1086,25 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.049176</v>
+        <v>0.903375</v>
       </c>
       <c r="H11">
-        <v>0.147528</v>
+        <v>1.80675</v>
       </c>
       <c r="I11">
-        <v>0.001110478358944403</v>
+        <v>0.02257563747577563</v>
       </c>
       <c r="J11">
-        <v>0.001119408769334847</v>
+        <v>0.0151645413800781</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,33 +1113,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.350107333333334</v>
+        <v>14.44160866666667</v>
       </c>
       <c r="N11">
-        <v>4.050322</v>
+        <v>43.324826</v>
       </c>
       <c r="O11">
-        <v>0.09197743380220573</v>
+        <v>0.9004851332477053</v>
       </c>
       <c r="P11">
-        <v>0.09341589104006402</v>
+        <v>0.9051105262948982</v>
       </c>
       <c r="Q11">
-        <v>0.066392878224</v>
+        <v>13.04618822925</v>
       </c>
       <c r="R11">
-        <v>0.597535904016</v>
+        <v>78.27712937550001</v>
       </c>
       <c r="S11">
-        <v>0.0001021389497485909</v>
+        <v>0.02032902592052571</v>
       </c>
       <c r="T11">
-        <v>0.0001045705676254762</v>
+        <v>0.01372558602954325</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.049176</v>
+        <v>0.903375</v>
       </c>
       <c r="H12">
-        <v>0.147528</v>
+        <v>1.80675</v>
       </c>
       <c r="I12">
-        <v>0.001110478358944403</v>
+        <v>0.02257563747577563</v>
       </c>
       <c r="J12">
-        <v>0.001119408769334847</v>
+        <v>0.0151645413800781</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6780855</v>
+        <v>1.350107333333334</v>
       </c>
       <c r="N12">
-        <v>1.356171</v>
+        <v>4.050322</v>
       </c>
       <c r="O12">
-        <v>0.04619526362730091</v>
+        <v>0.08418394446329946</v>
       </c>
       <c r="P12">
-        <v>0.03127848165348204</v>
+        <v>0.08461636007687151</v>
       </c>
       <c r="Q12">
-        <v>0.033345532548</v>
+        <v>1.21965321225</v>
       </c>
       <c r="R12">
-        <v>0.200073195288</v>
+        <v>7.317919273500001</v>
       </c>
       <c r="S12">
-        <v>5.129884054384918E-05</v>
+        <v>0.001900506211484278</v>
       </c>
       <c r="T12">
-        <v>3.501340665438691E-05</v>
+        <v>0.001283168293817307</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,303 +1210,55 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.049176</v>
+        <v>0.903375</v>
       </c>
       <c r="H13">
-        <v>0.147528</v>
+        <v>1.80675</v>
       </c>
       <c r="I13">
-        <v>0.001110478358944403</v>
+        <v>0.02257563747577563</v>
       </c>
       <c r="J13">
-        <v>0.001119408769334847</v>
+        <v>0.0151645413800781</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.010527</v>
+        <v>0.245871</v>
       </c>
       <c r="N13">
-        <v>0.031581</v>
+        <v>0.491742</v>
       </c>
       <c r="O13">
-        <v>0.0007171625705085814</v>
+        <v>0.01533092228899522</v>
       </c>
       <c r="P13">
-        <v>0.0007283784486606896</v>
+        <v>0.01027311362823029</v>
       </c>
       <c r="Q13">
-        <v>0.0005176757519999999</v>
+        <v>0.222113714625</v>
       </c>
       <c r="R13">
-        <v>0.004659081767999999</v>
+        <v>0.8884548585000001</v>
       </c>
       <c r="S13">
-        <v>7.96393514394719E-07</v>
+        <v>0.0003461053437656443</v>
       </c>
       <c r="T13">
-        <v>8.153532228252874E-07</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1.0598565</v>
-      </c>
-      <c r="H14">
-        <v>2.119713</v>
-      </c>
-      <c r="I14">
-        <v>0.02393337617611352</v>
-      </c>
-      <c r="J14">
-        <v>0.01608389811204027</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>12.63996033333333</v>
-      </c>
-      <c r="N14">
-        <v>37.919881</v>
-      </c>
-      <c r="O14">
-        <v>0.8611101399999848</v>
-      </c>
-      <c r="P14">
-        <v>0.8745772488577931</v>
-      </c>
-      <c r="Q14">
-        <v>13.3965441190255</v>
-      </c>
-      <c r="R14">
-        <v>80.37926471415301</v>
-      </c>
-      <c r="S14">
-        <v>0.02060927290968542</v>
-      </c>
-      <c r="T14">
-        <v>0.01406661136173723</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1.0598565</v>
-      </c>
-      <c r="H15">
-        <v>2.119713</v>
-      </c>
-      <c r="I15">
-        <v>0.02393337617611352</v>
-      </c>
-      <c r="J15">
-        <v>0.01608389811204027</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1.350107333333334</v>
-      </c>
-      <c r="N15">
-        <v>4.050322</v>
-      </c>
-      <c r="O15">
-        <v>0.09197743380220573</v>
-      </c>
-      <c r="P15">
-        <v>0.09341589104006402</v>
-      </c>
-      <c r="Q15">
-        <v>1.430920032931</v>
-      </c>
-      <c r="R15">
-        <v>8.585520197586002</v>
-      </c>
-      <c r="S15">
-        <v>0.002201330522901769</v>
-      </c>
-      <c r="T15">
-        <v>0.001502491673533845</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.0598565</v>
-      </c>
-      <c r="H16">
-        <v>2.119713</v>
-      </c>
-      <c r="I16">
-        <v>0.02393337617611352</v>
-      </c>
-      <c r="J16">
-        <v>0.01608389811204027</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.6780855</v>
-      </c>
-      <c r="N16">
-        <v>1.356171</v>
-      </c>
-      <c r="O16">
-        <v>0.04619526362730091</v>
-      </c>
-      <c r="P16">
-        <v>0.03127848165348204</v>
-      </c>
-      <c r="Q16">
-        <v>0.71867332473075</v>
-      </c>
-      <c r="R16">
-        <v>2.874693298923</v>
-      </c>
-      <c r="S16">
-        <v>0.001105608621946927</v>
-      </c>
-      <c r="T16">
-        <v>0.0005030799120139258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1.0598565</v>
-      </c>
-      <c r="H17">
-        <v>2.119713</v>
-      </c>
-      <c r="I17">
-        <v>0.02393337617611352</v>
-      </c>
-      <c r="J17">
-        <v>0.01608389811204027</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.010527</v>
-      </c>
-      <c r="N17">
-        <v>0.031581</v>
-      </c>
-      <c r="O17">
-        <v>0.0007171625705085814</v>
-      </c>
-      <c r="P17">
-        <v>0.0007283784486606896</v>
-      </c>
-      <c r="Q17">
-        <v>0.0111571093755</v>
-      </c>
-      <c r="R17">
-        <v>0.066942656253</v>
-      </c>
-      <c r="S17">
-        <v>1.716412157941042E-05</v>
-      </c>
-      <c r="T17">
-        <v>1.171516475526448E-05</v>
+        <v>0.0001557870567175424</v>
       </c>
     </row>
   </sheetData>
